--- a/Báo cáo hoạt động nhóm.xlsx
+++ b/Báo cáo hoạt động nhóm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HomeWorkFromSchool\TT_CSN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD896FB-0864-419A-9F78-36AB34744567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C18495B-A409-4102-8728-C2C7AB402D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{F1AA814E-59BE-40F1-ADD1-016D896DB2A4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{F1AA814E-59BE-40F1-ADD1-016D896DB2A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tuần 1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Tuần 3" sheetId="3" r:id="rId3"/>
     <sheet name="Tuần 4" sheetId="4" r:id="rId4"/>
     <sheet name="Tuần 5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="57">
   <si>
     <t>Kế hoạch làm việc nhóm</t>
   </si>
@@ -177,16 +178,40 @@
     <t>Ngày bắt đầu - Start time : 28/9/2024</t>
   </si>
   <si>
-    <t>Ngày kết thúc - End date: 12/10/2024</t>
-  </si>
-  <si>
     <t>Khảo sát địa hình và vẽ sơ đồ logic</t>
   </si>
   <si>
-    <t>Phạm Lê Mình Đức</t>
+    <t>Ngày bắt đầu - Start time : 6/10/2024</t>
   </si>
   <si>
-    <t>Vẽ sơ đồ vật lý phòng 1301</t>
+    <t>Ngày kết thúc - End date: 13/10/2024</t>
+  </si>
+  <si>
+    <t>13/10/2024</t>
+  </si>
+  <si>
+    <t>Vẽ sơ đồ vật lý phòng kế toán</t>
+  </si>
+  <si>
+    <t>Vẽ sơ đồ vật lý phòng nhân sự</t>
+  </si>
+  <si>
+    <t>Vẽ sơ đồ vật lý phòng an ninh</t>
+  </si>
+  <si>
+    <t>Vẽ sơ đồ vật lý phòng thiết kế và phát triển</t>
+  </si>
+  <si>
+    <t>Ngày kết thúc - End date: 5/10/2024</t>
+  </si>
+  <si>
+    <t>Vẽ sơ đồ vật lý phòng giám đốc</t>
+  </si>
+  <si>
+    <t>Vẽ sơ đồ vật lý phòng marketing</t>
+  </si>
+  <si>
+    <t>Vẽ sơ đồ vật lý phòng họp</t>
   </si>
 </sst>
 </file>
@@ -330,6 +355,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -338,9 +366,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,17 +717,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -713,17 +738,17 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -734,17 +759,17 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -755,17 +780,17 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -776,17 +801,17 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -797,15 +822,15 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -28245,80 +28270,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
@@ -28512,7 +28537,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28529,80 +28554,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
@@ -28822,10 +28847,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3C784D-24E1-486C-8609-EF62B8D4952E}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28841,80 +28866,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="A4" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
@@ -28950,19 +28975,19 @@
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="17">
-        <v>45636</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="14">
+        <v>45422</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="17">
-        <v>45636</v>
+      <c r="F8" s="14">
+        <v>45422</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>12</v>
@@ -28974,140 +28999,140 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+    <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="17">
-        <v>45636</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="14">
+        <v>45422</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="17">
-        <v>45636</v>
+      <c r="F9" s="14">
+        <v>45422</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="17">
-        <v>45636</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="14">
+        <v>45422</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="17">
-        <v>45636</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="F10" s="14">
+        <v>45422</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="6" t="s">
+      <c r="H10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="17">
-        <v>45636</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="14">
+        <v>45422</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="17">
-        <v>45636</v>
+      <c r="F11" s="14">
+        <v>45422</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="17">
-        <v>45636</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="14">
+        <v>45422</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="17">
-        <v>45636</v>
+      <c r="F12" s="14">
+        <v>45422</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+    <row r="13" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="17">
-        <v>45332</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="14">
+        <v>45422</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="17">
-        <v>45332</v>
+      <c r="F13" s="14">
+        <v>45422</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>12</v>
@@ -29116,6 +29141,35 @@
         <v>13</v>
       </c>
       <c r="I13" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>7</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="14">
+        <v>45636</v>
+      </c>
+      <c r="D14" s="14">
+        <v>45422</v>
+      </c>
+      <c r="E14" s="14">
+        <v>45636</v>
+      </c>
+      <c r="F14" s="14">
+        <v>45422</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -29134,10 +29188,351 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63AF85D9-F407-49C9-8B6B-4577C7123085}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection sqref="A1:I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="14">
+        <v>45453</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="14">
+        <v>45453</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="14">
+        <v>45453</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="14">
+        <v>45453</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="14">
+        <v>45453</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="14">
+        <v>45453</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="14">
+        <v>45453</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="14">
+        <v>45453</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>5</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="14">
+        <v>45453</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="14">
+        <v>45453</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="14">
+        <v>45453</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="14">
+        <v>45453</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>7</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="14">
+        <v>45636</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="14">
+        <v>45636</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4236B26D-F851-47F5-9AD4-B9AC2F99582D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Báo cáo hoạt động nhóm.xlsx
+++ b/Báo cáo hoạt động nhóm.xlsx
@@ -8,17 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HomeWorkFromSchool\TT_CSN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C18495B-A409-4102-8728-C2C7AB402D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DECB362-2D47-49CE-B8C1-9959CF3A38F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{F1AA814E-59BE-40F1-ADD1-016D896DB2A4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F1AA814E-59BE-40F1-ADD1-016D896DB2A4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tuần 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tuần 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tuần 3" sheetId="3" r:id="rId3"/>
-    <sheet name="Tuần 4" sheetId="4" r:id="rId4"/>
-    <sheet name="Tuần 5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="Nội dung" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="53">
   <si>
     <t>Kế hoạch làm việc nhóm</t>
   </si>
@@ -121,9 +116,6 @@
     <t>Ngày bắt đầu - Start time : 15/9/2024</t>
   </si>
   <si>
-    <t>Ngày kết thúc - End date: 17/9/2024</t>
-  </si>
-  <si>
     <t>Ngày bắt đầu thực tế - Actual start date</t>
   </si>
   <si>
@@ -145,19 +137,10 @@
     <t>18/9/2024</t>
   </si>
   <si>
-    <t>Ngày bắt đầu - Start time : 18/9/2024</t>
-  </si>
-  <si>
-    <t>Ngày kết thúc - End date: 21/9/2024</t>
-  </si>
-  <si>
     <t>Xây dựng đề cương chương 1</t>
   </si>
   <si>
     <t>21/9/2024</t>
-  </si>
-  <si>
-    <t>Xây dưngj đề cương chương 2</t>
   </si>
   <si>
     <t>Xây dựng đề cương chương 3</t>
@@ -167,24 +150,6 @@
   </si>
   <si>
     <t>Đồn Quang Điệp</t>
-  </si>
-  <si>
-    <t>Ngày bắt đầu - Start time : 23/9/2024</t>
-  </si>
-  <si>
-    <t>Ngày kết thúc - End date: 28/9/2024</t>
-  </si>
-  <si>
-    <t>Ngày bắt đầu - Start time : 28/9/2024</t>
-  </si>
-  <si>
-    <t>Khảo sát địa hình và vẽ sơ đồ logic</t>
-  </si>
-  <si>
-    <t>Ngày bắt đầu - Start time : 6/10/2024</t>
-  </si>
-  <si>
-    <t>Ngày kết thúc - End date: 13/10/2024</t>
   </si>
   <si>
     <t>13/10/2024</t>
@@ -202,16 +167,34 @@
     <t>Vẽ sơ đồ vật lý phòng thiết kế và phát triển</t>
   </si>
   <si>
-    <t>Ngày kết thúc - End date: 5/10/2024</t>
-  </si>
-  <si>
     <t>Vẽ sơ đồ vật lý phòng giám đốc</t>
   </si>
   <si>
-    <t>Vẽ sơ đồ vật lý phòng marketing</t>
+    <t>20/10/2024</t>
   </si>
   <si>
-    <t>Vẽ sơ đồ vật lý phòng họp</t>
+    <t>Xây dựng đề cương chương 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngày kết thúc - End date: </t>
+  </si>
+  <si>
+    <t>30/10/2024</t>
+  </si>
+  <si>
+    <t>31/10/2024</t>
+  </si>
+  <si>
+    <t>Lập kế hoạch triển khai thực hiện và chi phí lắp đặt</t>
+  </si>
+  <si>
+    <t>Hoàn thành bảng danh mục thiết bị</t>
+  </si>
+  <si>
+    <t>Hoàn thành bảng danh mục mua và cài đặt hệ điều hành, phần mềm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lập kế hoạch triển khai thực hiện  </t>
   </si>
 </sst>
 </file>
@@ -703,15 +686,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC7E36B-8570-4136-8034-45391CE3C398}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" style="10" customWidth="1"/>
-    <col min="3" max="7" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="10" customWidth="1"/>
+    <col min="3" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" customWidth="1"/>
     <col min="9" max="26" width="14.44140625" customWidth="1"/>
   </cols>
@@ -781,7 +765,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -840,7 +824,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:17" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
@@ -854,7 +838,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>7</v>
@@ -877,30 +861,30 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:17" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="E8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>12</v>
@@ -919,19 +903,19 @@
         <v>2</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>12</v>
@@ -951,16 +935,34 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+    <row r="10" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -968,16 +970,34 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+    <row r="11" spans="1:17" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -986,15 +1006,33 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="A12" s="5">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1002,70 +1040,208 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+    <row r="13" spans="1:17" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="A14" s="5">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="A15" s="6">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>9</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>10</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>11</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>12</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1075,15 +1251,33 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="A20" s="5">
+        <v>13</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1092,148 +1286,353 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+    <row r="21" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>14</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="14">
+        <v>45453</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="14">
+        <v>45453</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>15</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="14">
+        <v>45453</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="14">
+        <v>45453</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>16</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="14">
+        <v>45453</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="14">
+        <v>45453</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>17</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="14">
+        <v>45453</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="14">
+        <v>45453</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>18</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>19</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>20</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>21</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>22</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>23</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="14">
+        <v>45302</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>24</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>25</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="14">
+        <v>45423</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
@@ -28246,1297 +28645,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FFD87E-EA7C-4672-A53F-DBFB45CE4F99}">
-  <dimension ref="A1:I12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:I5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" customWidth="1"/>
-    <col min="9" max="9" width="20.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>3</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>5</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC99EE8-DD42-4843-B3F7-6EDA63A821B2}">
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>2</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>3</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>5</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>6</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3C784D-24E1-486C-8609-EF62B8D4952E}">
-  <dimension ref="A1:I14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" customWidth="1"/>
-    <col min="8" max="8" width="25.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="14">
-        <v>45422</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="14">
-        <v>45422</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="14">
-        <v>45422</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="14">
-        <v>45422</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>3</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="14">
-        <v>45422</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="14">
-        <v>45422</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>4</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="14">
-        <v>45422</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="14">
-        <v>45422</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>5</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="14">
-        <v>45422</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="14">
-        <v>45422</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
-        <v>6</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="14">
-        <v>45422</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="14">
-        <v>45422</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
-        <v>7</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="14">
-        <v>45636</v>
-      </c>
-      <c r="D14" s="14">
-        <v>45422</v>
-      </c>
-      <c r="E14" s="14">
-        <v>45636</v>
-      </c>
-      <c r="F14" s="14">
-        <v>45422</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63AF85D9-F407-49C9-8B6B-4577C7123085}">
-  <dimension ref="A1:I14"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:I14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" customWidth="1"/>
-    <col min="8" max="8" width="22.88671875" customWidth="1"/>
-    <col min="9" max="9" width="21" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="14">
-        <v>45453</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="14">
-        <v>45453</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="14">
-        <v>45453</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="14">
-        <v>45453</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>3</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="14">
-        <v>45453</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="14">
-        <v>45453</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>4</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="14">
-        <v>45453</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="14">
-        <v>45453</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>5</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="14">
-        <v>45453</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="14">
-        <v>45453</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
-        <v>6</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="14">
-        <v>45453</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="14">
-        <v>45453</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
-        <v>7</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="14">
-        <v>45636</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="14">
-        <v>45636</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4236B26D-F851-47F5-9AD4-B9AC2F99582D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Báo cáo hoạt động nhóm.xlsx
+++ b/Báo cáo hoạt động nhóm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HomeWorkFromSchool\TT_CSN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DECB362-2D47-49CE-B8C1-9959CF3A38F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41E7B8D-A099-469D-A8AA-26C6D8B27B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F1AA814E-59BE-40F1-ADD1-016D896DB2A4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="71">
   <si>
     <t>Kế hoạch làm việc nhóm</t>
   </si>
@@ -176,9 +176,6 @@
     <t>Xây dựng đề cương chương 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Ngày kết thúc - End date: </t>
-  </si>
-  <si>
     <t>30/10/2024</t>
   </si>
   <si>
@@ -196,12 +193,69 @@
   <si>
     <t xml:space="preserve">Lập kế hoạch triển khai thực hiện  </t>
   </si>
+  <si>
+    <t>Thiết lập địa chỉ IP cho các máy tính trong mạng</t>
+  </si>
+  <si>
+    <t>Giới thiệu về hệ điều hành quản trị cho hệ thống mạng</t>
+  </si>
+  <si>
+    <t>Xây dựng bảng tài khoản người dùng</t>
+  </si>
+  <si>
+    <t>Tạo tài khoản dùng cho từng máy tính</t>
+  </si>
+  <si>
+    <t>Tổng hợp, thống nhất hoàn thiện nội dung của chương II</t>
+  </si>
+  <si>
+    <t>Phân chia công việc cho các thành viên để thực hiện chương III</t>
+  </si>
+  <si>
+    <t>Tìm hiểu tổng quan về phần mềm Packet Tracer</t>
+  </si>
+  <si>
+    <t>Mô phỏng hoạt động của hệ thống trong mạng công ty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xây dựng kịch bản demo hoạt động của hệ thống mạng trong công ty </t>
+  </si>
+  <si>
+    <t>Tổng hợp, thống nhất và hoàn thiện nội dung của chương III</t>
+  </si>
+  <si>
+    <t>Hoàn thiện nội dung và viết bài báo cáo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chia địa chỉ mạng con với địa chỉ mạng là 166.66.0.0 </t>
+  </si>
+  <si>
+    <t>19/11/2024</t>
+  </si>
+  <si>
+    <t>20/11/2024</t>
+  </si>
+  <si>
+    <t>15/12/2024</t>
+  </si>
+  <si>
+    <t>16/12/2024</t>
+  </si>
+  <si>
+    <t>17/12/2024</t>
+  </si>
+  <si>
+    <t>20/12/2024</t>
+  </si>
+  <si>
+    <t>Ngày kết thúc - End date: 20/12/2024</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,12 +302,6 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -299,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -337,7 +385,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -686,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC7E36B-8570-4136-8034-45391CE3C398}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,17 +748,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -722,17 +769,17 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -743,17 +790,17 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -764,17 +811,17 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="A4" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -785,17 +832,17 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -806,15 +853,15 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -1156,7 +1203,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>10</v>
       </c>
@@ -1286,23 +1333,23 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>14</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="13">
         <v>45453</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="13">
         <v>45453</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="13" t="s">
         <v>38</v>
       </c>
       <c r="G21" s="5" t="s">
@@ -1315,23 +1362,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>15</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="13">
         <v>45453</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="13">
         <v>45453</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="13" t="s">
         <v>38</v>
       </c>
       <c r="G22" s="5" t="s">
@@ -1344,23 +1391,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>16</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="13">
         <v>45453</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="13">
         <v>45453</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="13" t="s">
         <v>38</v>
       </c>
       <c r="G23" s="5" t="s">
@@ -1380,16 +1427,16 @@
       <c r="B24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="13">
         <v>45453</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="13">
         <v>45453</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="13" t="s">
         <v>38</v>
       </c>
       <c r="G24" s="5" t="s">
@@ -1402,23 +1449,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>18</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G25" s="5" t="s">
@@ -1431,23 +1478,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>19</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G26" s="5" t="s">
@@ -1460,23 +1507,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>20</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G27" s="5" t="s">
@@ -1496,16 +1543,16 @@
       <c r="B28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G28" s="5" t="s">
@@ -1523,19 +1570,19 @@
         <v>22</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>48</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>12</v>
@@ -1552,18 +1599,18 @@
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="14" t="s">
+      <c r="D30" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="13">
         <v>45302</v>
       </c>
       <c r="G30" s="5" t="s">
@@ -1581,19 +1628,19 @@
         <v>24</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>48</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>12</v>
@@ -1610,18 +1657,18 @@
         <v>25</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F32" s="14">
+      <c r="F32" s="13">
         <v>45423</v>
       </c>
       <c r="G32" s="5" t="s">
@@ -1634,16 +1681,34 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
+    <row r="33" spans="1:26" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>26</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="13">
+        <v>45302</v>
+      </c>
+      <c r="D33" s="13">
+        <v>45607</v>
+      </c>
+      <c r="E33" s="13">
+        <v>45302</v>
+      </c>
+      <c r="F33" s="13">
+        <v>45607</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -1654,15 +1719,33 @@
       <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="A34" s="5">
+        <v>27</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="13">
+        <v>45302</v>
+      </c>
+      <c r="D34" s="13">
+        <v>45607</v>
+      </c>
+      <c r="E34" s="13">
+        <v>45302</v>
+      </c>
+      <c r="F34" s="13">
+        <v>45607</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -1672,16 +1755,34 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+    <row r="35" spans="1:26" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>28</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="13">
+        <v>45637</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="13">
+        <v>45637</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -1700,16 +1801,34 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+    <row r="36" spans="1:26" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>29</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="13">
+        <v>45637</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="13">
+        <v>45637</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -1728,16 +1847,34 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+    <row r="37" spans="1:26" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>30</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="13">
+        <v>45424</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="13">
+        <v>45424</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -1756,16 +1893,34 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+    <row r="38" spans="1:26" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>31</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="13">
+        <v>45455</v>
+      </c>
+      <c r="D38" s="13">
+        <v>45577</v>
+      </c>
+      <c r="E38" s="13">
+        <v>45455</v>
+      </c>
+      <c r="F38" s="13">
+        <v>45577</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -1784,16 +1939,34 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+    <row r="39" spans="1:26" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>32</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="13">
+        <v>45577</v>
+      </c>
+      <c r="D39" s="13">
+        <v>45577</v>
+      </c>
+      <c r="E39" s="13">
+        <v>45577</v>
+      </c>
+      <c r="F39" s="13">
+        <v>45577</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -1812,16 +1985,34 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+    <row r="40" spans="1:26" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>33</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="13">
+        <v>45638</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="13">
+        <v>45638</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -1840,16 +2031,34 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+    <row r="41" spans="1:26" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>34</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -1868,16 +2077,34 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+    <row r="42" spans="1:26" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>35</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -1896,16 +2123,34 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+    <row r="43" spans="1:26" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>36</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -1924,16 +2169,34 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+    <row r="44" spans="1:26" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>37</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
